--- a/Loan/customMenu/Resource/CustomData.xlsx
+++ b/Loan/customMenu/Resource/CustomData.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="56">
   <si>
     <t>Testcase</t>
   </si>
@@ -195,6 +195,15 @@
   </si>
   <si>
     <t>Record Verified for the Customer Id:100147535</t>
+  </si>
+  <si>
+    <t>UpdatedValue</t>
+  </si>
+  <si>
+    <t>AnotherValue</t>
+  </si>
+  <si>
+    <t>JenkinsUpdate</t>
   </si>
 </sst>
 </file>
@@ -1669,7 +1678,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A9:N22"/>
+  <dimension ref="A1:N22"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="E22" sqref="E22"/>
@@ -1682,6 +1691,21 @@
     <col min="12" max="12" width="11.1111111111111"/>
   </cols>
   <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="0">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="B2" t="s" s="0">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="C3" t="s" s="0">
+        <v>55</v>
+      </c>
+    </row>
     <row r="9" spans="4:4">
       <c r="D9" t="s" s="0">
         <v>38</v>
